--- a/InputData/ctrl-settings/BDMFL/Boolean Disable Macroecon Feedback Loops.xlsx
+++ b/InputData/ctrl-settings/BDMFL/Boolean Disable Macroecon Feedback Loops.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-virginia\InputData\ctrl-settings\BDMFL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\ctrl-settings\BDMFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B556A75-5638-415C-AE8C-23853A7AEFAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281EDCBB-60EF-4E49-A907-37031BDDF37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="2940" windowWidth="23940" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDMFL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
